--- a/data/trans_camb/P1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>4.398198493790768</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.874058213942744</v>
+        <v>2.874058213942743</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.147418106862292</v>
+        <v>-4.627093502352023</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06482061395027433</v>
+        <v>0.17062884745109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.154008112186541</v>
+        <v>-1.065841684287005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.05804500645273963</v>
+        <v>-0.1117371664393768</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.674902357485497</v>
+        <v>2.821937586377623</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2500309080843769</v>
+        <v>0.3815073794604559</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.712048017152664</v>
+        <v>-1.72250507680346</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.257547339797508</v>
+        <v>2.455336053181135</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4389583197814214</v>
+        <v>0.1154385221290693</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.3171934756594128</v>
+        <v>-0.1238650330964092</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.59016392176338</v>
+        <v>6.987104444653805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.401658231820246</v>
+        <v>8.2458640281153</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.702000122155184</v>
+        <v>4.615899950600985</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.541671947937706</v>
+        <v>8.422883128995293</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.460009526874994</v>
+        <v>6.534523009810698</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.607585752818067</v>
+        <v>1.453580635163076</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.48445848829062</v>
+        <v>6.74247953178855</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.365217763587004</v>
+        <v>5.813310404868184</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8615411955591034</v>
+        <v>-0.8713842231279307</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01502145148097209</v>
+        <v>-0.007288274150400647</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2852053099458821</v>
+        <v>-0.2830374742483118</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1126308974516248</v>
+        <v>-0.1366161187410596</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8561883098026543</v>
+        <v>0.9436206176548946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09746070955095264</v>
+        <v>0.05853681247413733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4711570730077804</v>
+        <v>-0.494806316850972</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5561741638565492</v>
+        <v>0.6284421844153548</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1025477671092274</v>
+        <v>0.02991205315732471</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.04458663304680805</v>
+        <v>0.02496544631763841</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.529803543611963</v>
+        <v>2.818797868982221</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.110691482636035</v>
+        <v>2.92497978447879</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.850607920050161</v>
+        <v>4.504238868436754</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.64389137845016</v>
+        <v>9.556938790350765</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.874559010957045</v>
+        <v>6.082698379826691</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8207071283977354</v>
+        <v>0.7950073322719542</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.135230458104018</v>
+        <v>3.162127139174112</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.83323834308657</v>
+        <v>2.696014694006653</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.604302620335061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.902389913890815</v>
+        <v>8.902389913890818</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7239045875479543</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4964071575623812</v>
+        <v>-0.1951489384980571</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7230598927120389</v>
+        <v>0.3332995397763071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.544468607471312</v>
+        <v>4.849179868850442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.656493880376816</v>
+        <v>-1.713854547429214</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9209622488872069</v>
+        <v>0.9914182251165469</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.917255628692039</v>
+        <v>2.05978538050647</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.00972634272320976</v>
+        <v>0.04252395432993624</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.230756497779403</v>
+        <v>1.299447667125014</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.062173386209675</v>
+        <v>3.908731728710722</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.821986550139806</v>
+        <v>5.914255695067247</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.93936561650413</v>
+        <v>7.208732859668199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.65033265110577</v>
+        <v>13.72829348244532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.90847584123174</v>
+        <v>3.155051119721223</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.066427745095268</v>
+        <v>6.053766463667478</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.155636246987122</v>
+        <v>8.059509108381736</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.982545304180988</v>
+        <v>4.129080392513148</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.529925840693223</v>
+        <v>5.639905599577046</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.527266269298618</v>
+        <v>9.569408444013483</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.5157305835557551</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.273820549758658</v>
+        <v>1.273820549758659</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1863390705587301</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03195382660347963</v>
+        <v>-0.02929541014757018</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06706027416288569</v>
+        <v>0.01361873055783132</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5259660380641371</v>
+        <v>0.5546631804936152</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3532519694372452</v>
+        <v>-0.3298042101969003</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1135969003078789</v>
+        <v>0.1925311708074241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3215363710081391</v>
+        <v>0.3504487336218488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.00720778664041346</v>
+        <v>-0.005765672045464285</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1740118903096656</v>
+        <v>0.1863773706136353</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6244473602216837</v>
+        <v>0.6235248744143541</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.046562632259486</v>
+        <v>1.069310021286</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.20650946235488</v>
+        <v>1.278332523319405</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.340832425757922</v>
+        <v>2.28909848747708</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.062112846149191</v>
+        <v>1.107831208906013</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.102745225790054</v>
+        <v>2.199298390225553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.76846569686652</v>
+        <v>2.620725574559477</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8549324383244127</v>
+        <v>0.8995764676805749</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.156473637878318</v>
+        <v>1.21726234689504</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.996308894116222</v>
+        <v>1.997894354495021</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>3.639395145735839</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.746106870755312</v>
+        <v>6.74610687075531</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.004898142693097</v>
+        <v>-4.155819222219803</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.674062110249068</v>
+        <v>1.4879319137502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.963366708110362</v>
+        <v>6.075355850299947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.909587469637665</v>
+        <v>-1.863724681634752</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5434003418554808</v>
+        <v>0.3337419640801494</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.787184183494034</v>
+        <v>1.951677050643516</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.395527225917804</v>
+        <v>-2.491523003885948</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.865223827286994</v>
+        <v>1.775378394062785</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.621984436096565</v>
+        <v>4.858279242306683</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.05344760476028</v>
+        <v>0.9878239575301213</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.843073142799984</v>
+        <v>7.911949762188808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.56021808128662</v>
+        <v>13.21390866091134</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.043244997422724</v>
+        <v>1.019919567996137</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.323317176824716</v>
+        <v>4.294260196108244</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.602794408264285</v>
+        <v>5.501614761475262</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.610204008816536</v>
+        <v>0.3982496832530519</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.687250881711066</v>
+        <v>5.382215694766164</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.770414616478247</v>
+        <v>9.060355287865372</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5309991254016633</v>
+        <v>-0.5353585267259188</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2171671331424563</v>
+        <v>0.1744369672898283</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7672878949115816</v>
+        <v>0.758875024997141</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6901470418925103</v>
+        <v>-0.6749398706528287</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1672283852368541</v>
+        <v>0.05607534500331393</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5194247313255214</v>
+        <v>0.6615887626261799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4917771296974856</v>
+        <v>-0.5101738135941105</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3532799494267803</v>
+        <v>0.3413596694761949</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9133427557961235</v>
+        <v>0.9528595597581492</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2253788154028762</v>
+        <v>0.2216896475569503</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.63053494066872</v>
+        <v>1.649874121993157</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.717502464051772</v>
+        <v>2.682418016564254</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7636459892729064</v>
+        <v>0.8974181572702231</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.210077585804858</v>
+        <v>3.175053579769825</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.917611900080048</v>
+        <v>4.340969330407684</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2146971049259533</v>
+        <v>0.1599592567712567</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.75132154262293</v>
+        <v>1.657099372071762</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.630078579098063</v>
+        <v>2.696428568169928</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.6743996294228178</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.61013452011668</v>
+        <v>2.610134520116682</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.240689176959853</v>
@@ -1306,7 +1306,7 @@
         <v>3.731923710487224</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>8.415265888037746</v>
+        <v>8.41526588803775</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5496045364340244</v>
+        <v>-0.7362613273993129</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.856538936512104</v>
+        <v>3.038966720517046</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.54588264357707</v>
+        <v>10.55649262289869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.602879315372757</v>
+        <v>-2.58927100594618</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.999796775172673</v>
+        <v>-1.898337456301906</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.0005496467597827042</v>
+        <v>0.08746143190641736</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6400826525458406</v>
+        <v>-1.028410542349636</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.490545723556764</v>
+        <v>1.629698423205973</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.123208464021747</v>
+        <v>6.209487848882802</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.695943755217751</v>
+        <v>5.900794191998859</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.29729756534816</v>
+        <v>10.70346262164745</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.6269128377536</v>
+        <v>18.56468881552952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.641013473574262</v>
+        <v>2.602508653097499</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.236772731348619</v>
+        <v>3.347117404167016</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.960666191953381</v>
+        <v>4.918111547031765</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.560294172844739</v>
+        <v>3.24247084763042</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.82393929492847</v>
+        <v>5.866052633192319</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.72136072456617</v>
+        <v>10.87979408114643</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>1.116277955598868</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>2.386055425154755</v>
+        <v>2.386055425154754</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.008621323878812384</v>
@@ -1402,7 +1402,7 @@
         <v>0.1404800316461398</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5437010401391941</v>
+        <v>0.5437010401391943</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2275067075788247</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09423016955705851</v>
+        <v>-0.1121543649803704</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3573138946658156</v>
+        <v>0.3492414958169524</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.318771528997097</v>
+        <v>1.228311378694631</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4126048714800625</v>
+        <v>-0.4261905235702095</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3308157324653605</v>
+        <v>-0.3395663565546073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01196039782541065</v>
+        <v>0.01428282978878015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1058939667750888</v>
+        <v>-0.1691148848647243</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2125312645248421</v>
+        <v>0.2361806025899908</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9325946841770902</v>
+        <v>0.9088298822103951</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.26172941899383</v>
+        <v>1.307022623437121</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.251775097360564</v>
+        <v>2.334557004068404</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.417691395187386</v>
+        <v>3.926979489569854</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7721203935124948</v>
+        <v>0.7383004410236235</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9963974582230641</v>
+        <v>0.9204782952035655</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.473110164714137</v>
+        <v>1.571923159219878</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7999153682092973</v>
+        <v>0.7049712462649403</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.319521953661508</v>
+        <v>1.329615755185572</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.502293467778137</v>
+        <v>2.569164852009901</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>6.589829748453796</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.018134725579673</v>
+        <v>8.018134725579676</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.01632654656466975</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.877568917551348</v>
+        <v>-3.444258743014049</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.725073294273466</v>
+        <v>0.4521162651797109</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.937195765344082</v>
+        <v>8.797883672550839</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.014047126947987</v>
+        <v>-3.892879292666342</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.362368229572488</v>
+        <v>2.474833497267646</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.66865771659151</v>
+        <v>3.968433710855533</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.617755644706618</v>
+        <v>-2.856355908892124</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.675449540766572</v>
+        <v>2.817129782347239</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.731433759715752</v>
+        <v>7.439228032391759</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.646624260688284</v>
+        <v>4.011190786825193</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.701368938446832</v>
+        <v>8.509851572636878</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.16324149418575</v>
+        <v>16.94249270045199</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.545260544725024</v>
+        <v>3.56165574980894</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.02675156896063</v>
+        <v>10.7623540780631</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.37081978459682</v>
+        <v>11.58030689823712</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.83923890405745</v>
+        <v>2.528453595354781</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.673995252968568</v>
+        <v>8.511840774342479</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>13.30983721548042</v>
+        <v>12.89896151356863</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.7550330122646403</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9186817635187927</v>
+        <v>0.918681763518793</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.002081843642836824</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4058364567951562</v>
+        <v>-0.4010372768109841</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.05703932287020448</v>
+        <v>0.03734354473122117</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.9506840108560823</v>
+        <v>0.9278470296537303</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3659964444577845</v>
+        <v>-0.3793032866946709</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2083006491477305</v>
+        <v>0.2228058709284449</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4209665664547292</v>
+        <v>0.3350241013477968</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2855647750095013</v>
+        <v>-0.3180942744624319</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2780432690417372</v>
+        <v>0.290483145179374</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7943546504835756</v>
+        <v>0.7821467661803325</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7430747117699865</v>
+        <v>0.7579358525795269</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.713895690842278</v>
+        <v>1.742160719980223</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.623075642159047</v>
+        <v>3.457030451543494</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5270599427929508</v>
+        <v>0.518216775673539</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.610279951850305</v>
+        <v>1.604911484134657</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.713707413114508</v>
+        <v>1.72244353202847</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4631815779653178</v>
+        <v>0.3893487692419471</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.314592431097816</v>
+        <v>1.330041327387484</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.102651490504676</v>
+        <v>2.076249764292078</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.141280930870419</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>10.93863364553489</v>
+        <v>10.93863364553488</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.404419774916197</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.835773993146959</v>
+        <v>-2.613865636023266</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.312254744507133</v>
+        <v>1.78250506367974</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7.453883958376077</v>
+        <v>7.668824774589754</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.799848349999355</v>
+        <v>-4.226390954383316</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.037489787877355</v>
+        <v>-2.765193465330466</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.685502362113517</v>
+        <v>5.827705327079348</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.51204604345805</v>
+        <v>-1.804583185505811</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.595319459797761</v>
+        <v>0.2715824352185866</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>7.726044539593194</v>
+        <v>7.529676491246219</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.508043865512855</v>
+        <v>8.028457852304376</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.5546700975472</v>
+        <v>12.62223007034963</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.58869027505703</v>
+        <v>17.60666253351579</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.128679341729381</v>
+        <v>8.227686864796912</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.336479282998507</v>
+        <v>9.953541314247746</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.96835552146114</v>
+        <v>16.34343736009275</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.626053379431363</v>
+        <v>7.16129642914375</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.940682040131133</v>
+        <v>8.548411307425496</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>15.08326929610631</v>
+        <v>14.99746982436944</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1438930098548933</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5010672249934298</v>
+        <v>0.5010672249934296</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1496566379749199</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1748118465138575</v>
+        <v>-0.2528679761131767</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.08417994640899933</v>
+        <v>0.1201701943267733</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.6182773468558368</v>
+        <v>0.6168454005902294</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1548343510304242</v>
+        <v>-0.1690834989481473</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1236151669146385</v>
+        <v>-0.1077590132571987</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2216893642666675</v>
+        <v>0.2266990872432075</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.08666877526556904</v>
+        <v>-0.09933238175753518</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.03605377844748791</v>
+        <v>0.01568018866644916</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4221794990278719</v>
+        <v>0.417389831481443</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.227148366262138</v>
+        <v>1.100635066899377</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.798219215594217</v>
+        <v>1.7215070887439</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.727102139285052</v>
+        <v>2.69349058391117</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4238260918280519</v>
+        <v>0.4573521004673189</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5044017527298347</v>
+        <v>0.5311295406473773</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8752911394349894</v>
+        <v>0.89631458298273</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4671383397326604</v>
+        <v>0.524556942172276</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6336620730740266</v>
+        <v>0.6165101077110905</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.088725815247044</v>
+        <v>1.082175393902941</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>6.28603667109684</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>21.79074363314416</v>
+        <v>21.79074363314415</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.70241973967959</v>
@@ -1948,7 +1948,7 @@
         <v>6.066680790673407</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>17.01351399486488</v>
+        <v>17.01351399486487</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.408173841159941</v>
+        <v>-4.971966874826444</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.278499092363542</v>
+        <v>-1.87407203351594</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.870394935438496</v>
+        <v>2.860363580065402</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.458211100404577</v>
+        <v>-4.563420561173715</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.53127222012108</v>
+        <v>-1.230649106702564</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>15.88465594375943</v>
+        <v>15.31652047137224</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.896882727437705</v>
+        <v>-3.074917946024919</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.5327097363685764</v>
+        <v>0.8084297374030072</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>12.25942593725697</v>
+        <v>12.36479906131695</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.047613811194413</v>
+        <v>10.49292705697504</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.9830913904288</v>
+        <v>12.7665972849118</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.82318387307162</v>
+        <v>17.07301703368456</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.23350807923563</v>
+        <v>11.00173137651142</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.54218525908524</v>
+        <v>14.89359506542734</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>28.08620938559191</v>
+        <v>28.0321611634365</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.76498486915504</v>
+        <v>7.896120935217963</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>11.37329404767892</v>
+        <v>11.69365580163897</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>21.779630534972</v>
+        <v>22.24009056132044</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.1839597703717451</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6377023241710279</v>
+        <v>0.6377023241710276</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.09350727271969186</v>
@@ -2053,7 +2053,7 @@
         <v>0.2099151241635294</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5886899320927645</v>
+        <v>0.5886899320927641</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2301658027070467</v>
+        <v>-0.2152137450478178</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.05675601249751079</v>
+        <v>-0.07367768088830244</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1167947342210452</v>
+        <v>0.1078321927017297</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1185786714285837</v>
+        <v>-0.1196073757215232</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.04309604476593738</v>
+        <v>-0.03225122788140172</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4078599094900173</v>
+        <v>0.3875036284548595</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.0899559503305993</v>
+        <v>-0.09571837164028733</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.01930420465594666</v>
+        <v>0.02552089668485165</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3720455558864031</v>
+        <v>0.3809756291889618</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5554672996832029</v>
+        <v>0.6179124916755812</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9037097424258278</v>
+        <v>0.7755903251572787</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.069156448632917</v>
+        <v>1.034067281061707</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3341797202467717</v>
+        <v>0.3774071834635786</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4868894515797417</v>
+        <v>0.523224492523898</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9569844343644868</v>
+        <v>0.9585384236202319</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2991194203274583</v>
+        <v>0.303295634262876</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4297280875569295</v>
+        <v>0.4556188053665874</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8552140692709045</v>
+        <v>0.867464381554986</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>4.439951483770997</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>8.832065074732844</v>
+        <v>8.832065074732846</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.115368339107167</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.4003401353318584</v>
+        <v>-0.4079665639332028</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>3.789567194492561</v>
+        <v>3.582930778939242</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9.40274138465074</v>
+        <v>9.56226842979115</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.2017246266650643</v>
+        <v>-0.285410737352122</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>3.011568947414891</v>
+        <v>2.808038056161642</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>7.473691759879644</v>
+        <v>7.53332632681179</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.1810142752272066</v>
+        <v>0.08165626941111016</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>3.785790906914647</v>
+        <v>3.816387334853413</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>8.927470927744743</v>
+        <v>8.825998930257956</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.366852441037628</v>
+        <v>2.295344873841336</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.742225833606397</v>
+        <v>6.803994552905565</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>12.62680059802546</v>
+        <v>12.68043106116873</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.648127876332377</v>
+        <v>2.666421660540656</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>6.034245754996487</v>
+        <v>5.849197368477018</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>10.3347454762485</v>
+        <v>10.16833464503993</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.121541445780237</v>
+        <v>2.055259919074728</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>5.94991556272755</v>
+        <v>5.885517783877736</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>10.98414989464067</v>
+        <v>11.06771227075894</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.0477854753956248</v>
+        <v>-0.05150054514628005</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4762235899238528</v>
+        <v>0.4336911143612759</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>1.173540846580719</v>
+        <v>1.18314172233922</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.02118587609103317</v>
+        <v>-0.03115042803087355</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.3167430430911769</v>
+        <v>0.3010416557366862</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.7727345123215453</v>
+        <v>0.7841984353867038</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02229655291852398</v>
+        <v>0.01005257710961705</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.4490323823856218</v>
+        <v>0.4427340503059742</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.049436650889525</v>
+        <v>1.034985848453721</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3604832033251414</v>
+        <v>0.3518964059404102</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.016428505558374</v>
+        <v>1.001082833925071</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.953418770762269</v>
+        <v>1.911690546978175</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3337829395263246</v>
+        <v>0.3245016440425714</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7392110240092646</v>
+        <v>0.7350105911048882</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.282792795816317</v>
+        <v>1.27140930291537</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2904236107158232</v>
+        <v>0.2720504561368557</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.7951439014442325</v>
+        <v>0.785851522047287</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.459417455879668</v>
+        <v>1.461837575897791</v>
       </c>
     </row>
     <row r="52">
